--- a/report1.xlsx
+++ b/report1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>assetIssueId</t>
   </si>
@@ -38,19 +38,19 @@
     <t>resolvedDate</t>
   </si>
   <si>
-    <t>AIjoO7sYh766</t>
-  </si>
-  <si>
-    <t>ASSuG3iIPG331</t>
-  </si>
-  <si>
-    <t>PRO_hZAhHUT699</t>
-  </si>
-  <si>
-    <t>2022-04-18 11:56:22.0</t>
-  </si>
-  <si>
-    <t>jhdgdfjds</t>
+    <t>AIAMqRKmR315</t>
+  </si>
+  <si>
+    <t>ASSsK3ljXn571</t>
+  </si>
+  <si>
+    <t>PRO_oEWoirx476</t>
+  </si>
+  <si>
+    <t>2022-04-21 06:36:46.0</t>
+  </si>
+  <si>
+    <t>asdfghjkl;oiuygtfdsfghjkhgfd</t>
   </si>
   <si>
     <t>false</t>
@@ -59,22 +59,127 @@
     <t>OPEN</t>
   </si>
   <si>
+    <t>2022-04-21 12:57:33.0</t>
+  </si>
+  <si>
+    <t>AIlt02jhv466</t>
+  </si>
+  <si>
+    <t>2022-04-21 06:37:56.0</t>
+  </si>
+  <si>
+    <t>bghgfj</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>2022-04-21 12:53:32.0</t>
+  </si>
+  <si>
+    <t>AIRKQmCCr874</t>
+  </si>
+  <si>
+    <t>ASSwGysyLe381</t>
+  </si>
+  <si>
+    <t>PRO_qIal8mU529</t>
+  </si>
+  <si>
+    <t>2022-04-21 07:57:10.0</t>
+  </si>
+  <si>
+    <t>Key board and mouse issue lakshi</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>AIOZbYEpK357</t>
-  </si>
-  <si>
-    <t>ASSpvLCEVp535</t>
-  </si>
-  <si>
-    <t>2022-04-18 11:56:52.0</t>
-  </si>
-  <si>
-    <t>CLOSE</t>
-  </si>
-  <si>
-    <t>2022-04-19 05:30:00.0</t>
+    <t>AIvfV1pNh133</t>
+  </si>
+  <si>
+    <t>ASSa9qwgRr444</t>
+  </si>
+  <si>
+    <t>PRO_dwkYmcM279</t>
+  </si>
+  <si>
+    <t>2022-04-21 10:04:18.0</t>
+  </si>
+  <si>
+    <t>asdfghjkjhgfdsdfghjkjhgfdsasdfghj</t>
+  </si>
+  <si>
+    <t>AI1VmuGJY492</t>
+  </si>
+  <si>
+    <t>2022-04-21 10:06:21.0</t>
+  </si>
+  <si>
+    <t>asdfghjkjhgfds</t>
+  </si>
+  <si>
+    <t>AIQIUqZBf142</t>
+  </si>
+  <si>
+    <t>2022-04-21 10:16:11.0</t>
+  </si>
+  <si>
+    <t>Returned to employee</t>
+  </si>
+  <si>
+    <t>DAMAGE</t>
+  </si>
+  <si>
+    <t>2022-04-21 11:12:23.0</t>
+  </si>
+  <si>
+    <t>AIsHh6SLB164</t>
+  </si>
+  <si>
+    <t>ASSoqAiedN667</t>
+  </si>
+  <si>
+    <t>2022-04-21 10:57:58.0</t>
+  </si>
+  <si>
+    <t>hello not set to the vender</t>
+  </si>
+  <si>
+    <t>AISMqDTPy214</t>
+  </si>
+  <si>
+    <t>2022-04-21 10:58:00.0</t>
+  </si>
+  <si>
+    <t>AImDbPkCJ693</t>
+  </si>
+  <si>
+    <t>2022-04-21 10:59:47.0</t>
+  </si>
+  <si>
+    <t>AI2Tn9KXN234</t>
+  </si>
+  <si>
+    <t>ASSYFZUbbB630</t>
+  </si>
+  <si>
+    <t>2022-04-21 11:00:53.0</t>
+  </si>
+  <si>
+    <t>not yet to do the lap</t>
+  </si>
+  <si>
+    <t>AIfHP3CWn159</t>
+  </si>
+  <si>
+    <t>2022-04-21 11:07:11.0</t>
+  </si>
+  <si>
+    <t>hagfvaytdfvaukhjkabfakuy</t>
   </si>
 </sst>
 </file>
@@ -119,7 +224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -182,25 +287,259 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/report1.xlsx
+++ b/report1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
   <si>
     <t>assetIssueId</t>
   </si>
@@ -44,27 +44,30 @@
     <t>ASSsK3ljXn571</t>
   </si>
   <si>
+    <t>PRO_dwkYmcM279</t>
+  </si>
+  <si>
+    <t>2022-04-21 06:36:46.0</t>
+  </si>
+  <si>
+    <t>dfghjkl;kjhgfdcxvbnm,nb</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>2022-04-21 12:57:33.0</t>
+  </si>
+  <si>
+    <t>AIlt02jhv466</t>
+  </si>
+  <si>
     <t>PRO_oEWoirx476</t>
   </si>
   <si>
-    <t>2022-04-21 06:36:46.0</t>
-  </si>
-  <si>
-    <t>asdfghjkl;oiuygtfdsfghjkhgfd</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>OPEN</t>
-  </si>
-  <si>
-    <t>2022-04-21 12:57:33.0</t>
-  </si>
-  <si>
-    <t>AIlt02jhv466</t>
-  </si>
-  <si>
     <t>2022-04-21 06:37:56.0</t>
   </si>
   <si>
@@ -98,15 +101,24 @@
     <t/>
   </si>
   <si>
+    <t>AIaKYnmBI243</t>
+  </si>
+  <si>
+    <t>ASSoqAiedN667</t>
+  </si>
+  <si>
+    <t>2022-04-21 13:36:27.0</t>
+  </si>
+  <si>
+    <t>asdfghjklkjhtrewasdfgh,</t>
+  </si>
+  <si>
     <t>AIvfV1pNh133</t>
   </si>
   <si>
     <t>ASSa9qwgRr444</t>
   </si>
   <si>
-    <t>PRO_dwkYmcM279</t>
-  </si>
-  <si>
     <t>2022-04-21 10:04:18.0</t>
   </si>
   <si>
@@ -140,9 +152,6 @@
     <t>AIsHh6SLB164</t>
   </si>
   <si>
-    <t>ASSoqAiedN667</t>
-  </si>
-  <si>
     <t>2022-04-21 10:57:58.0</t>
   </si>
   <si>
@@ -180,6 +189,15 @@
   </si>
   <si>
     <t>hagfvaytdfvaukhjkabfakuy</t>
+  </si>
+  <si>
+    <t>AI0gmzcYC367</t>
+  </si>
+  <si>
+    <t>2022-04-22 05:33:12.0</t>
+  </si>
+  <si>
+    <t>asdfghjkl;kjhgfdsfghjk</t>
   </si>
 </sst>
 </file>
@@ -224,7 +242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -290,39 +308,39 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -331,18 +349,18 @@
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -357,7 +375,7 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -365,16 +383,16 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -383,59 +401,59 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -443,16 +461,16 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -461,25 +479,25 @@
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
@@ -487,24 +505,24 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -513,18 +531,18 @@
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>54</v>
@@ -539,7 +557,59 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/report1.xlsx
+++ b/report1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
   <si>
     <t>assetIssueId</t>
   </si>
@@ -38,43 +38,160 @@
     <t>resolvedDate</t>
   </si>
   <si>
-    <t>AIjoO7sYh766</t>
-  </si>
-  <si>
-    <t>ASSuG3iIPG331</t>
-  </si>
-  <si>
-    <t>PRO_hZAhHUT699</t>
-  </si>
-  <si>
-    <t>2022-04-18 11:56:22.0</t>
-  </si>
-  <si>
-    <t>jhdgdfjds</t>
+    <t>AIveXyXfw173</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>PRO_GLBSnlo418</t>
+  </si>
+  <si>
+    <t>2022-04-27 11:25:59.0</t>
+  </si>
+  <si>
+    <t>keyboard issue</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>2022-04-27 12:49:00.0</t>
+  </si>
+  <si>
+    <t>AIWbZLEFW154</t>
+  </si>
+  <si>
+    <t>ASSFwKtRPU302</t>
+  </si>
+  <si>
+    <t>2022-04-27 11:50:13.0</t>
+  </si>
+  <si>
+    <t>its is good product in amazon......</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>OPEN</t>
+    <t>2022-04-27 14:15:49.0</t>
+  </si>
+  <si>
+    <t>AIUDn8Szx566</t>
+  </si>
+  <si>
+    <t>ASSPZWAjGI771</t>
+  </si>
+  <si>
+    <t>2022-04-27 12:50:07.0</t>
+  </si>
+  <si>
+    <t>Key board and mouse issue lakshi</t>
+  </si>
+  <si>
+    <t>2022-04-27 14:15:54.0</t>
+  </si>
+  <si>
+    <t>AI4NegAxe906</t>
+  </si>
+  <si>
+    <t>PRO_Mip8sKy546</t>
+  </si>
+  <si>
+    <t>2022-04-27 09:46:52.0</t>
+  </si>
+  <si>
+    <t>sdfghjhgfdsdfghjkasdfghjk</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>AIOZbYEpK357</t>
-  </si>
-  <si>
-    <t>ASSpvLCEVp535</t>
-  </si>
-  <si>
-    <t>2022-04-18 11:56:52.0</t>
-  </si>
-  <si>
-    <t>CLOSE</t>
-  </si>
-  <si>
-    <t>2022-04-19 05:30:00.0</t>
+    <t>AIYR01ufk664</t>
+  </si>
+  <si>
+    <t>2022-04-27 09:54:45.0</t>
+  </si>
+  <si>
+    <t>dfghjkl;kjhgfdsghjkl;l';kjlohgifuy</t>
+  </si>
+  <si>
+    <t>AIRZku4XV877</t>
+  </si>
+  <si>
+    <t>2022-04-27 09:58:39.0</t>
+  </si>
+  <si>
+    <t>not good for asset.....</t>
+  </si>
+  <si>
+    <t>AI51ZPokA380</t>
+  </si>
+  <si>
+    <t>PRO_VNgtYBU909</t>
+  </si>
+  <si>
+    <t>2022-04-27 10:05:25.0</t>
+  </si>
+  <si>
+    <t>not fit for list.......</t>
+  </si>
+  <si>
+    <t>AIko8ahXX685</t>
+  </si>
+  <si>
+    <t>PRO_4re6rkn333</t>
+  </si>
+  <si>
+    <t>2022-04-27 10:51:44.0</t>
+  </si>
+  <si>
+    <t>not  to rise tickets dsfgbnkml;nbjvhgvdbnm/vl;hgvbkjfnfjkhdfk.nfhbdsfkjndsiufsdkjfhsiuffndjkfndfjbsdfhgsdflsknsjfbnfkjsbfjkbnvfjkvndvdvjkdvndfjkvbdfkjvnfdkjvnsfvkjbfvjkdfbvhafdvbsbfkfnkjsdfnsdlk/gsklgmdslkfmlkf;vsklvfdzkvfaddflkvnsflkvns</t>
+  </si>
+  <si>
+    <t>AILdLZamI812</t>
+  </si>
+  <si>
+    <t>2022-04-27 17:55:59.0</t>
+  </si>
+  <si>
+    <t>key board issue</t>
+  </si>
+  <si>
+    <t>AICLvxjRR508</t>
+  </si>
+  <si>
+    <t>2022-04-27 12:31:42.0</t>
+  </si>
+  <si>
+    <t>AI1MYfTYb205</t>
+  </si>
+  <si>
+    <t>2022-04-27 12:32:23.0</t>
+  </si>
+  <si>
+    <t>AIaKji9Ot991</t>
+  </si>
+  <si>
+    <t>2022-04-27 12:32:25.0</t>
+  </si>
+  <si>
+    <t>AI4hXnzHL600</t>
+  </si>
+  <si>
+    <t>2022-04-27 12:34:01.0</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium.kjvksjvnksndvksknvksnvksnvksdnv</t>
+  </si>
+  <si>
+    <t>AIizMyeAe325</t>
+  </si>
+  <si>
+    <t>2022-04-27 12:36:55.0</t>
   </si>
 </sst>
 </file>
@@ -119,7 +236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -191,16 +308,328 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
